--- a/ss.xlsx
+++ b/ss.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="冷水机组" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IT" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PUE" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="暖通" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WUE" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="损耗" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="损耗抄表" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="冷水机组" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="IT" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PUE" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="暖通" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="WUE" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="损耗" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="损耗抄表" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">暖通!$A$1:$AJ$93</definedName>
@@ -3813,8 +3813,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="冷水机组"/>
       <sheetName val="IT"/>
@@ -14118,7 +14118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -27951,12 +27951,12 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -35193,12 +35193,12 @@
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -47390,12 +47390,12 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -52609,10 +52609,10 @@
       <c r="A90" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="394" t="s"/>
-      <c r="C90" s="394" t="s"/>
-      <c r="D90" s="394" t="s"/>
-      <c r="E90" s="394" t="s"/>
+      <c r="B90" s="394" t="n"/>
+      <c r="C90" s="394" t="n"/>
+      <c r="D90" s="394" t="n"/>
+      <c r="E90" s="394" t="n"/>
       <c r="F90" s="394">
         <f>(G90/B90)*24</f>
         <v/>
@@ -52836,7 +52836,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
